--- a/Inputs_Data_largePlans/TrackingSheet(7)_YY.xlsx
+++ b/Inputs_Data_largePlans/TrackingSheet(7)_YY.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <sheet name="SampleSeparationRatesSched" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1956,12 +1956,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,6 +1975,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4319,30 +4319,30 @@
   <dimension ref="A2:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="13" style="57" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="57"/>
-    <col min="5" max="5" width="22.42578125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
-    <col min="8" max="9" width="19.7109375" style="57" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="57" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="57" customWidth="1"/>
-    <col min="12" max="12" width="39.42578125" style="57" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="57" customWidth="1"/>
-    <col min="14" max="16" width="32" style="57" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" style="57" customWidth="1"/>
-    <col min="18" max="19" width="23.140625" style="57" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="33.7109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="13" style="55" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="55"/>
+    <col min="5" max="5" width="22.42578125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="55" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="55" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" style="55" customWidth="1"/>
+    <col min="10" max="10" width="29" style="55" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="55" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="55" customWidth="1"/>
+    <col min="14" max="16" width="32" style="55" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" style="55" customWidth="1"/>
+    <col min="18" max="19" width="23.140625" style="55" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4350,11 +4350,11 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
       <c r="M2" s="53"/>
@@ -4375,811 +4375,811 @@
       <c r="C3" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="S3" s="56"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="54" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="S5" s="58" t="s">
+      <c r="S5" s="56" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="R6" s="57" t="s">
+      <c r="R6" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="55" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="Q7" s="58" t="s">
+      <c r="Q7" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="R7" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="S7" s="58" t="s">
+      <c r="S7" s="56" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q8" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="R8" s="57" t="s">
+      <c r="R8" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="S8" s="58" t="s">
+      <c r="S8" s="56" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="N9" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="56" t="s">
         <v>415</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="R9" s="57" t="s">
+      <c r="R9" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="56" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="R11" s="57" t="s">
+      <c r="R11" s="55" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="56" t="s">
         <v>376</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="R12" s="57" t="s">
+      <c r="R12" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="S12" s="57" t="s">
+      <c r="S12" s="55" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="55" t="s">
         <v>397</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="55" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="56" t="s">
         <v>421</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="56" t="s">
         <v>424</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="N14" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="56" t="s">
         <v>422</v>
       </c>
-      <c r="R14" s="57" t="s">
+      <c r="R14" s="55" t="s">
         <v>412</v>
       </c>
-      <c r="S14" s="58" t="s">
+      <c r="S14" s="56" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="55" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="55" t="s">
         <v>433</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="55" t="s">
         <v>434</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="N15" s="57" t="s">
+      <c r="N15" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="Q15" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="R15" s="57" t="s">
+      <c r="R15" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="S15" s="58" t="s">
+      <c r="S15" s="56" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="55" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="56" t="s">
         <v>436</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="Q17" s="58" t="s">
+      <c r="Q17" s="56" t="s">
         <v>438</v>
       </c>
-      <c r="R17" s="57" t="s">
+      <c r="R17" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="S17" s="58" t="s">
+      <c r="S17" s="56" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="55" t="s">
         <v>445</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="61" t="s">
         <v>440</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="56" t="s">
         <v>439</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="N18" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="O18" s="58" t="s">
+      <c r="O18" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="Q18" s="58" t="s">
+      <c r="Q18" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="R18" s="57" t="s">
+      <c r="R18" s="55" t="s">
         <v>444</v>
       </c>
-      <c r="S18" s="58" t="s">
+      <c r="S18" s="56" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="L19" s="57" t="s">
+      <c r="L19" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="N19" s="57" t="s">
+      <c r="N19" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="Q19" s="58" t="s">
+      <c r="Q19" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="R19" s="57" t="s">
+      <c r="R19" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="S19" s="57" t="s">
+      <c r="S19" s="55" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="55" t="s">
         <v>446</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="55" t="s">
         <v>383</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="62" t="s">
         <v>385</v>
       </c>
-      <c r="L20" s="64" t="s">
+      <c r="L20" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="N20" s="57" t="s">
+      <c r="N20" s="55" t="s">
         <v>386</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="56" t="s">
         <v>448</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="55" t="s">
         <v>388</v>
       </c>
-      <c r="Q20" s="58" t="s">
+      <c r="Q20" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="R20" s="57" t="s">
+      <c r="R20" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="S20" s="58" t="s">
+      <c r="S20" s="56" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="N21" s="57" t="s">
+      <c r="N21" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="56" t="s">
         <v>449</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="Q21" s="58" t="s">
+      <c r="Q21" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="R21" s="57" t="s">
+      <c r="R21" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="S21" s="58" t="s">
+      <c r="S21" s="56" t="s">
         <v>449</v>
       </c>
     </row>

--- a/Inputs_Data_largePlans/TrackingSheet(7)_YY.xlsx
+++ b/Inputs_Data_largePlans/TrackingSheet(7)_YY.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="16" r:id="rId1"/>
@@ -1849,7 +1849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
@@ -1982,6 +1982,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4318,7 +4319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B226B23A-4699-4C25-ACA0-03226372D0C8}">
   <dimension ref="A2:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -5511,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328ECBE8-BB38-490E-A6C9-AEDAF6172805}">
   <dimension ref="A3:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5687,7 +5688,7 @@
       <c r="C14" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="66" t="s">
         <v>479</v>
       </c>
     </row>
